--- a/hyperparam_search.xlsx
+++ b/hyperparam_search.xlsx
@@ -3,10 +3,12 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="0"/>
+    <s:workbookView activeTab="2"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="age_small_regress" sheetId="1" r:id="rId1"/>
+    <s:sheet name="age_small" sheetId="2" r:id="rId2"/>
+    <s:sheet name="biobank" sheetId="3" r:id="rId3"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
   <si>
     <t>mix_type</t>
   </si>
@@ -212,6 +214,375 @@
   </si>
   <si>
     <t>ARCHITECTURE.GAN.LAMBDA_REGR</t>
+  </si>
+  <si>
+    <t>pixed</t>
+  </si>
+  <si>
+    <t>ARCHITECTURE.CLASS.COORDCONV</t>
+  </si>
+  <si>
+    <t>(0, 0)</t>
+  </si>
+  <si>
+    <t>(1, 0)</t>
+  </si>
+  <si>
+    <t>(1, 1)</t>
+  </si>
+  <si>
+    <t>ARCHITECTURE.GAN.LRELU_SLOPE</t>
+  </si>
+  <si>
+    <t>frozen_init_coord.pth</t>
+  </si>
+  <si>
+    <t>frozen_init_0.pth</t>
+  </si>
+  <si>
+    <t>ConditionalFCWGAN</t>
+  </si>
+  <si>
+    <t>AuxiliaryClassifierWGAN</t>
+  </si>
+  <si>
+    <t>5e-5</t>
+  </si>
+  <si>
+    <t>RUN_NAME</t>
+  </si>
+  <si>
+    <t>coord_all_2</t>
+  </si>
+  <si>
+    <t>coord_first_0</t>
+  </si>
+  <si>
+    <t>coord_none_def_frozen_0</t>
+  </si>
+  <si>
+    <t>coord_first_def_frozen_1</t>
+  </si>
+  <si>
+    <t>coord_both_def_frozen_2</t>
+  </si>
+  <si>
+    <t>coord_both_def_frozen_3</t>
+  </si>
+  <si>
+    <t>FCWGAN_coordCONVCLASS</t>
+  </si>
+  <si>
+    <t>FCWGAN_coordCONVCLASS_3</t>
+  </si>
+  <si>
+    <t>CoordFCWGAN_coordCONVCLASS_7</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>asd3</t>
+  </si>
+  <si>
+    <t>asd4</t>
+  </si>
+  <si>
+    <t>COORD_ACFCWGAN_5</t>
+  </si>
+  <si>
+    <t>COORD_ACFCWGAN_8</t>
+  </si>
+  <si>
+    <t>COORD_ACFCWGAN_9</t>
+  </si>
+  <si>
+    <t>COORD_ACFCWGAN_10</t>
+  </si>
+  <si>
+    <t>COORD_ACFCWGAN_11</t>
+  </si>
+  <si>
+    <t>COORD_ACFCWGAN_14</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>run_wgan_4</t>
+  </si>
+  <si>
+    <t>test_loss</t>
+  </si>
+  <si>
+    <t>ARCHITECTURE.GAN.COORDCONV</t>
+  </si>
+  <si>
+    <t>ARCHITECTURE.GAN.COORDCONV_D</t>
+  </si>
+  <si>
+    <t>ARCHITECTURE.GAN.COORDCONV_G</t>
+  </si>
+  <si>
+    <t>OPTIMIZER.GAN.D.WD_ADAM</t>
+  </si>
+  <si>
+    <t>OPTIMIZER.GAN.G.WD_ADAM</t>
+  </si>
+  <si>
+    <t>1e-6</t>
+  </si>
+  <si>
+    <t>OPTIMIZER.CLASS.POWER</t>
+  </si>
+  <si>
+    <t>OPTIMIZER.CLASS.WD</t>
+  </si>
+  <si>
+    <t>OPTIMIZER.GAN.D.POWER</t>
+  </si>
+  <si>
+    <t>OPTIMIZER.GAN.G.POWER</t>
+  </si>
+  <si>
+    <t>ARCHITECTURE.GAN.CRITIC_ITER_DECAY</t>
+  </si>
+  <si>
+    <t>(44.583333333333336, 80.66666666666667)</t>
+  </si>
+  <si>
+    <t>(128, 64)</t>
+  </si>
+  <si>
+    <t>(128, 128)</t>
+  </si>
+  <si>
+    <t>(256, 128)</t>
+  </si>
+  <si>
+    <t>(64, 32)</t>
+  </si>
+  <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
+    <t>frozen_init_bio_0.pth</t>
+  </si>
+  <si>
+    <t>frozen_init_bio_ch128_64_n32_16.pth</t>
+  </si>
+  <si>
+    <t>frozen_init_bio_ch128_128_n32_16.pth</t>
+  </si>
+  <si>
+    <t>frozen_init_bio_ch256_128_n32_16.pth</t>
+  </si>
+  <si>
+    <t>frozen_init_bio_ch64_32_n32_16.pth</t>
+  </si>
+  <si>
+    <t>DATA_FOLDER</t>
+  </si>
+  <si>
+    <t>F:/HajduIstvan/UK_Biobank/</t>
+  </si>
+  <si>
+    <t>AugNet</t>
+  </si>
+  <si>
+    <t>1e-3</t>
+  </si>
+  <si>
+    <t>5e-3</t>
+  </si>
+  <si>
+    <t>5e-4</t>
+  </si>
+  <si>
+    <t>2e-5</t>
+  </si>
+  <si>
+    <t>biobank_class_0</t>
+  </si>
+  <si>
+    <t>biobank_class_2</t>
+  </si>
+  <si>
+    <t>biobank_class_3</t>
+  </si>
+  <si>
+    <t>biobank_class_4</t>
+  </si>
+  <si>
+    <t>biobank_class_5</t>
+  </si>
+  <si>
+    <t>biobank_class_6</t>
+  </si>
+  <si>
+    <t>biobank_class_7</t>
+  </si>
+  <si>
+    <t>biobank_class_8</t>
+  </si>
+  <si>
+    <t>biobank_class_9</t>
+  </si>
+  <si>
+    <t>biobank_class_10</t>
+  </si>
+  <si>
+    <t>biobank_class_12</t>
+  </si>
+  <si>
+    <t>biobank_class_13</t>
+  </si>
+  <si>
+    <t>biobank_class_14</t>
+  </si>
+  <si>
+    <t>biobank_class_15</t>
+  </si>
+  <si>
+    <t>biobank_gan_6</t>
+  </si>
+  <si>
+    <t>biobank_gan_8</t>
+  </si>
+  <si>
+    <t>biobank_AugNet_0</t>
+  </si>
+  <si>
+    <t>biobank_cond_gan_debug_3</t>
+  </si>
+  <si>
+    <t>biobank_condwgan_all_2</t>
+  </si>
+  <si>
+    <t>biobank_condwgan_500-1000_fin</t>
+  </si>
+  <si>
+    <t>biobank_condwgan_allrange_fin</t>
+  </si>
+  <si>
+    <t>biobank_condwgan_allrange_withdev_5</t>
+  </si>
+  <si>
+    <t>biobank_condwgan_allrange_withdev_6</t>
+  </si>
+  <si>
+    <t>biobank_condwgan_allrange_noorig_0</t>
+  </si>
+  <si>
+    <t>biobank</t>
+  </si>
+  <si>
+    <t>ARCHITECTURE.GAN.LAMBDA_CRITIC</t>
+  </si>
+  <si>
+    <t>EXP_TRAIN_SIZES</t>
+  </si>
+  <si>
+    <t>(100, 200, 500, 1000, 2000, 5000, 10000, None)</t>
+  </si>
+  <si>
+    <t>(None,)</t>
+  </si>
+  <si>
+    <t>(400, 800,)</t>
+  </si>
+  <si>
+    <t>(200, 400, 800, 1600, 2000, 4000, 8000, None)</t>
+  </si>
+  <si>
+    <t>(200, 400, 800, 1600, 2000, 4000, 8000, 14864)</t>
+  </si>
+  <si>
+    <t>EXP_VAL_SIZES</t>
+  </si>
+  <si>
+    <t>(100, 200,)</t>
+  </si>
+  <si>
+    <t>(50, 100, 200, 400, 500, 1000, 2000, None)</t>
+  </si>
+  <si>
+    <t>(50, 100, 200, 400, 500, 1000, 2000, 2477)</t>
+  </si>
+  <si>
+    <t>GEN_IMG_MULT</t>
+  </si>
+  <si>
+    <t>mix_losses</t>
+  </si>
+  <si>
+    <t>[5.0190244]</t>
+  </si>
+  <si>
+    <t>[6.1333485, 5.957086]</t>
+  </si>
+  <si>
+    <t>[5.7197886, 6.3128476, 5.9537754, 5.726376, 5.657634, 5.3665185, 5.1350574, 4.9885206]</t>
+  </si>
+  <si>
+    <t>pure_losses</t>
+  </si>
+  <si>
+    <t>[[6.1091795, 5.9175982, 6.0424857, 6.0120926, 6.0141172, 5.9287853], [6.30541, 6.5124598, 6.379008, 6.437287, 6.186099, 6.260998], [6.003161, 6.153826, 6.0271397, 6.0663776, 6.094171, 6.0659213], [5.7982645, 5.912123, 5.839323, 5.7700067, 5.8292265, 5.8428082], [5.852762, 5.7593465, 5.697085, 5.760824, 5.7039995, 5.757492], [5.477455, 5.5525494, 5.522353, 5.481417, 5.573846, 5.470449], [5.165778, 5.2759943, 5.230698, 5.1651864, 5.1991534, 5.182266], [5.0605564, 5.0133667, 5.068135, 5.013288, 5.0283203, 4.9935956]]</t>
+  </si>
+  <si>
+    <t>EXP_DEV_SIZE</t>
+  </si>
+  <si>
+    <t>mix_dev_losses</t>
+  </si>
+  <si>
+    <t>[6.142994557629029, 6.0264339440663655, 5.8320291813313965, 5.787199396739403, 5.589155152877172, 5.254814146985611, 5.239671528160573, 5.166384290228288]</t>
+  </si>
+  <si>
+    <t>[6.274425752242406, 5.981625679721436, 5.910301868607601, 5.730092765003443, 5.605414695322514, 5.210135657946268, 5.36792436767618, 5.206961015015841]</t>
+  </si>
+  <si>
+    <t>[6.588260547866424, 6.382793913582961, 6.352339757263661, 6.4031710754930975, 6.428378132740657, 6.448214754909277, 6.388912189076345, 6.378141187131405]</t>
+  </si>
+  <si>
+    <t>mix_val_losses</t>
+  </si>
+  <si>
+    <t>[5.7587433, 6.352223, 5.794026, 5.7002344, 5.69338, 5.4052734, 5.172289, 5.084297]</t>
+  </si>
+  <si>
+    <t>[5.5181537, 6.178309, 5.896561, 5.7420883, 5.6267514, 5.397181, 5.1964355, 5.026959]</t>
+  </si>
+  <si>
+    <t>[6.3837247, 6.29127, 6.3816895, 6.2535715, 6.309596, 6.3845897, 6.2916107, 6.2200136]</t>
+  </si>
+  <si>
+    <t>pure_dev_losses</t>
+  </si>
+  <si>
+    <t>[[6.084720171819131, 6.20986036977172, 6.076199177732071, 6.04999696713686, 6.135114503860474, 6.082538626134396], [5.91668602647384, 5.881556943823894, 5.892135876595974, 6.136399838576714, 6.031553311030071, 5.883241299966972], [5.795475805024306, 5.788075158526501, 5.774693461984396, 5.86065634911259, 5.830423593680064, 5.785664000451566], [5.5839082903862, 5.542980071097613, 5.513378633598487, 5.595603647808234, 5.591523334980011, 5.596489350289107], [5.47730239768823, 5.650894810338816, 5.496035869538784, 5.502121604422729, 5.575447860976061, 5.573004506409168], [5.2630603417555495, 5.255407517363628, 5.299931988020738, 5.306012333164613, 5.320990597178539, 5.311021156688532], [5.151961978117625, 5.114095901151499, 5.125622404426337, 5.085772584805886, 5.136947250554959, 5.152386524458726], [4.927376791616281, 4.923332611123721, 4.945826211690902, 4.925510638207197, 5.019847374786933, 4.926191392918429]]</t>
+  </si>
+  <si>
+    <t>[[6.056949551165105, 6.141585125545661, 6.046167098710935, 6.054479458669822, 6.134278560767571, 6.062496066858372], [5.87684836280346, 6.143611637701591, 5.9649630079468094, 5.9613239655693375, 5.928006962567569, 6.136996439357599], [5.793424714277188, 5.7853644117712975, 5.781255511383216, 5.701339202870926, 5.785569669246675, 5.861051383078099], [5.645643581857285, 5.631635802268982, 5.541587453454734, 5.538725036919117, 5.591229983429114, 5.679929219653209], [5.6878776151537895, 5.697192952831586, 5.54829911223054, 5.505438802321753, 5.489654920568069, 5.58625409624974], [5.279075943619013, 5.169758521298568, 5.191760687688987, 5.289336382756631, 5.307287529319525, 5.259765077044567], [5.126513277272383, 5.086509293019772, 5.067938472598792, 5.136112726946672, 5.100274706363678, 5.248672471503417], [4.929776438961427, 5.030225781699023, 4.978888232241075, 5.014993107328813, 4.944753077020248, 4.821666017313799]]</t>
+  </si>
+  <si>
+    <t>[[6.08088454802831, 6.021087463865678, 6.047061554680268, 6.0857388498981795, 6.151515964657069, 5.993869328131279], [5.8946937319537005, 5.92666222457091, 5.937548011203607, 5.931586928576232, 6.114557497551044, 5.969374417712292], [5.754182705064615, 5.7513212606608874, 5.668777993698915, 5.799332415680091, 5.7966838767627875, 5.766732652445635], [5.559992753366629, 5.622899708946546, 5.579349323044221, 5.55780266926686, 5.564986706713836, 5.675913850396872], [5.531448496391376, 5.472703667571148, 5.578349941353004, 5.56310486154755, 5.822063848743836, 5.507845456759136], [5.373507032910983, 5.5309201212028665, 5.228082064290842, 5.332673566371202, 5.2675849962830545, 5.289128359436989], [5.192929370880127, 5.128824550946554, 5.125874479085207, 5.0566643665929645, 5.080783664176861, 5.178491164843242], [4.911604803423087, 5.014893218626579, 4.9759685545563705, 4.914812047183514, 4.978210634807747, 4.9471691301663725]]</t>
+  </si>
+  <si>
+    <t>pure_val_losses</t>
+  </si>
+  <si>
+    <t>[[6.310731, 6.121038, 6.00265, 5.9621916, 6.1063647, 5.9952292], [6.3363066, 6.2433615, 6.245454, 6.6784296, 6.303032, 6.266619], [6.0264335, 5.963988, 5.956228, 6.1514087, 6.0569906, 5.9518266], [5.880539, 5.739635, 5.9014435, 5.875464, 5.875177, 5.824426], [5.6516047, 5.7370048, 5.7043643, 5.758844, 5.7238693, 5.701524], [5.3890486, 5.488693, 5.4478765, 5.587805, 5.519308, 5.4637694], [5.1795983, 5.232023, 5.184929, 5.2186375, 5.1971235, 5.2455897], [5.0303173, 4.980414, 5.01899, 5.0638847, 5.053788, 5.0092497]]</t>
+  </si>
+  <si>
+    <t>[[5.9229894, 6.1510453, 5.9795666, 6.0406733, 5.9351063, 5.5660996], [6.280636, 6.5018177, 6.319575, 6.311677, 6.1681232, 6.3602147], [5.9860315, 5.9058084, 6.2030535, 6.017022, 6.1111455, 6.0154924], [5.8529954, 5.8139944, 5.852496, 5.760649, 5.9288583, 5.8470674], [5.7174153, 5.795171, 5.7850647, 5.721726, 5.6870337, 5.670354], [5.5227613, 5.4311156, 5.4009204, 5.601965, 5.506301, 5.4963126], [5.180006, 5.231865, 5.1880393, 5.195016, 5.153493, 5.248312], [5.046266, 5.0482316, 5.0235863, 5.084712, 5.0162654, 4.9648094]]</t>
+  </si>
+  <si>
+    <t>[[6.053542, 6.018243, 6.1078815, 6.0323405, 6.0098443, 5.9617953], [6.301079, 6.3734374, 6.1064377, 6.3171906, 6.2703333, 6.320775], [6.0502353, 6.0311284, 5.9947305, 6.086964, 5.979811, 5.9731927], [5.7772946, 5.7870884, 5.9371095, 5.889137, 5.771688, 5.889616], [5.774573, 5.749685, 5.757633, 5.8093348, 5.833994, 5.7294087], [5.6135206, 5.593914, 5.461024, 5.585119, 5.5030994, 5.4813776], [5.251833, 5.132469, 5.1607676, 5.1385417, 5.155906, 5.1708217], [5.0023503, 5.0124, 5.0369835, 5.0124145, 5.035577, 5.0267005]]</t>
+  </si>
+  <si>
+    <t>ONLY_GEN</t>
   </si>
 </sst>
 </file>
@@ -228,12 +599,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -248,8 +625,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -550,7 +928,7 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1046,7 +1424,6 @@
       <c r="D22" t="n">
         <v>385</v>
       </c>
-      <c r="G22" t="s"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
@@ -1130,7 +1507,6 @@
       <c r="D26" t="n">
         <v>5000</v>
       </c>
-      <c r="G26" t="s"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
@@ -1589,6 +1965,8234 @@
       </c>
       <c r="G47" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13.271</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.602</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.945</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.845</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.186</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.757</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12.698</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13.637</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14.726</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13.936</v>
+      </c>
+      <c r="O2" t="n">
+        <v>12.806</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12.536</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>12.984</v>
+      </c>
+      <c r="R2" t="n">
+        <v>19.562</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="T2" t="n">
+        <v>15.157</v>
+      </c>
+      <c r="U2" t="n">
+        <v>16.144</v>
+      </c>
+      <c r="V2" t="n">
+        <v>15.789</v>
+      </c>
+      <c r="W2" t="n">
+        <v>16.265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10</v>
+      </c>
+      <c r="V9" t="n">
+        <v>10</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>48</v>
+      </c>
+      <c r="C11" t="n">
+        <v>48</v>
+      </c>
+      <c r="D11" t="n">
+        <v>48</v>
+      </c>
+      <c r="E11" t="n">
+        <v>48</v>
+      </c>
+      <c r="F11" t="n">
+        <v>48</v>
+      </c>
+      <c r="G11" t="n">
+        <v>48</v>
+      </c>
+      <c r="H11" t="n">
+        <v>48</v>
+      </c>
+      <c r="I11" t="n">
+        <v>48</v>
+      </c>
+      <c r="J11" t="n">
+        <v>48</v>
+      </c>
+      <c r="K11" t="n">
+        <v>48</v>
+      </c>
+      <c r="L11" t="n">
+        <v>48</v>
+      </c>
+      <c r="M11" t="n">
+        <v>64</v>
+      </c>
+      <c r="N11" t="n">
+        <v>64</v>
+      </c>
+      <c r="O11" t="n">
+        <v>64</v>
+      </c>
+      <c r="P11" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>64</v>
+      </c>
+      <c r="R11" t="n">
+        <v>64</v>
+      </c>
+      <c r="S11" t="n">
+        <v>64</v>
+      </c>
+      <c r="T11" t="n">
+        <v>64</v>
+      </c>
+      <c r="U11" t="n">
+        <v>64</v>
+      </c>
+      <c r="V11" t="n">
+        <v>64</v>
+      </c>
+      <c r="W11" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" t="n">
+        <v>10</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" t="n">
+        <v>10</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" t="n">
+        <v>10</v>
+      </c>
+      <c r="S15" t="n">
+        <v>200</v>
+      </c>
+      <c r="T15" t="n">
+        <v>300</v>
+      </c>
+      <c r="U15" t="n">
+        <v>300</v>
+      </c>
+      <c r="V15" t="n">
+        <v>300</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>16</v>
+      </c>
+      <c r="N17" t="n">
+        <v>128</v>
+      </c>
+      <c r="O17" t="n">
+        <v>128</v>
+      </c>
+      <c r="P17" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>128</v>
+      </c>
+      <c r="R17" t="n">
+        <v>128</v>
+      </c>
+      <c r="S17" t="n">
+        <v>32</v>
+      </c>
+      <c r="T17" t="n">
+        <v>32</v>
+      </c>
+      <c r="U17" t="n">
+        <v>32</v>
+      </c>
+      <c r="V17" t="n">
+        <v>32</v>
+      </c>
+      <c r="W17" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="n">
+        <v>128</v>
+      </c>
+      <c r="C18" t="n">
+        <v>128</v>
+      </c>
+      <c r="D18" t="n">
+        <v>128</v>
+      </c>
+      <c r="E18" t="n">
+        <v>128</v>
+      </c>
+      <c r="F18" t="n">
+        <v>128</v>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="n">
+        <v>64</v>
+      </c>
+      <c r="I18" t="n">
+        <v>64</v>
+      </c>
+      <c r="J18" t="n">
+        <v>64</v>
+      </c>
+      <c r="K18" t="n">
+        <v>64</v>
+      </c>
+      <c r="L18" t="n">
+        <v>64</v>
+      </c>
+      <c r="M18" t="n">
+        <v>64</v>
+      </c>
+      <c r="N18" t="n">
+        <v>64</v>
+      </c>
+      <c r="O18" t="n">
+        <v>64</v>
+      </c>
+      <c r="P18" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>64</v>
+      </c>
+      <c r="R18" t="n">
+        <v>64</v>
+      </c>
+      <c r="S18" t="n">
+        <v>64</v>
+      </c>
+      <c r="T18" t="n">
+        <v>64</v>
+      </c>
+      <c r="U18" t="n">
+        <v>64</v>
+      </c>
+      <c r="V18" t="n">
+        <v>64</v>
+      </c>
+      <c r="W18" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n">
+        <v>128</v>
+      </c>
+      <c r="C19" t="n">
+        <v>128</v>
+      </c>
+      <c r="D19" t="n">
+        <v>128</v>
+      </c>
+      <c r="E19" t="n">
+        <v>128</v>
+      </c>
+      <c r="F19" t="n">
+        <v>128</v>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>128</v>
+      </c>
+      <c r="I19" t="n">
+        <v>128</v>
+      </c>
+      <c r="J19" t="n">
+        <v>128</v>
+      </c>
+      <c r="K19" t="n">
+        <v>128</v>
+      </c>
+      <c r="L19" t="n">
+        <v>128</v>
+      </c>
+      <c r="M19" t="n">
+        <v>128</v>
+      </c>
+      <c r="N19" t="n">
+        <v>128</v>
+      </c>
+      <c r="O19" t="n">
+        <v>128</v>
+      </c>
+      <c r="P19" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>128</v>
+      </c>
+      <c r="R19" t="n">
+        <v>128</v>
+      </c>
+      <c r="S19" t="n">
+        <v>128</v>
+      </c>
+      <c r="T19" t="n">
+        <v>128</v>
+      </c>
+      <c r="U19" t="n">
+        <v>128</v>
+      </c>
+      <c r="V19" t="n">
+        <v>128</v>
+      </c>
+      <c r="W19" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n">
+        <v>64</v>
+      </c>
+      <c r="C20" t="n">
+        <v>64</v>
+      </c>
+      <c r="D20" t="n">
+        <v>64</v>
+      </c>
+      <c r="E20" t="n">
+        <v>64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>64</v>
+      </c>
+      <c r="G20" t="n">
+        <v>64</v>
+      </c>
+      <c r="H20" t="n">
+        <v>64</v>
+      </c>
+      <c r="I20" t="n">
+        <v>64</v>
+      </c>
+      <c r="J20" t="n">
+        <v>64</v>
+      </c>
+      <c r="K20" t="n">
+        <v>64</v>
+      </c>
+      <c r="L20" t="n">
+        <v>64</v>
+      </c>
+      <c r="M20" t="n">
+        <v>64</v>
+      </c>
+      <c r="N20" t="n">
+        <v>64</v>
+      </c>
+      <c r="O20" t="n">
+        <v>64</v>
+      </c>
+      <c r="P20" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>64</v>
+      </c>
+      <c r="R20" t="n">
+        <v>64</v>
+      </c>
+      <c r="S20" t="n">
+        <v>64</v>
+      </c>
+      <c r="T20" t="n">
+        <v>64</v>
+      </c>
+      <c r="U20" t="n">
+        <v>64</v>
+      </c>
+      <c r="V20" t="n">
+        <v>64</v>
+      </c>
+      <c r="W20" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>100</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
+      <c r="L21" t="n">
+        <v>100</v>
+      </c>
+      <c r="M21" t="n">
+        <v>100</v>
+      </c>
+      <c r="N21" t="n">
+        <v>100</v>
+      </c>
+      <c r="O21" t="n">
+        <v>100</v>
+      </c>
+      <c r="P21" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>100</v>
+      </c>
+      <c r="R21" t="n">
+        <v>100</v>
+      </c>
+      <c r="S21" t="n">
+        <v>64</v>
+      </c>
+      <c r="T21" t="n">
+        <v>64</v>
+      </c>
+      <c r="U21" t="n">
+        <v>64</v>
+      </c>
+      <c r="V21" t="n">
+        <v>64</v>
+      </c>
+      <c r="W21" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="n">
+        <v>64</v>
+      </c>
+      <c r="C22" t="n">
+        <v>64</v>
+      </c>
+      <c r="D22" t="n">
+        <v>64</v>
+      </c>
+      <c r="E22" t="n">
+        <v>64</v>
+      </c>
+      <c r="F22" t="n">
+        <v>64</v>
+      </c>
+      <c r="G22" t="n">
+        <v>64</v>
+      </c>
+      <c r="H22" t="n">
+        <v>64</v>
+      </c>
+      <c r="I22" t="n">
+        <v>64</v>
+      </c>
+      <c r="J22" t="n">
+        <v>64</v>
+      </c>
+      <c r="K22" t="n">
+        <v>64</v>
+      </c>
+      <c r="L22" t="n">
+        <v>64</v>
+      </c>
+      <c r="M22" t="n">
+        <v>64</v>
+      </c>
+      <c r="N22" t="n">
+        <v>64</v>
+      </c>
+      <c r="O22" t="n">
+        <v>64</v>
+      </c>
+      <c r="P22" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>64</v>
+      </c>
+      <c r="R22" t="n">
+        <v>64</v>
+      </c>
+      <c r="S22" t="n">
+        <v>64</v>
+      </c>
+      <c r="T22" t="n">
+        <v>64</v>
+      </c>
+      <c r="U22" t="n">
+        <v>64</v>
+      </c>
+      <c r="V22" t="n">
+        <v>64</v>
+      </c>
+      <c r="W22" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>73</v>
+      </c>
+      <c r="R23" t="s">
+        <v>73</v>
+      </c>
+      <c r="S23" t="s">
+        <v>73</v>
+      </c>
+      <c r="T23" t="s">
+        <v>73</v>
+      </c>
+      <c r="U23" t="s">
+        <v>73</v>
+      </c>
+      <c r="V23" t="s">
+        <v>73</v>
+      </c>
+      <c r="W23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" t="s">
+        <v>74</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>74</v>
+      </c>
+      <c r="R24" t="s">
+        <v>75</v>
+      </c>
+      <c r="S24" t="s">
+        <v>75</v>
+      </c>
+      <c r="T24" t="s">
+        <v>75</v>
+      </c>
+      <c r="U24" t="s">
+        <v>75</v>
+      </c>
+      <c r="V24" t="s">
+        <v>75</v>
+      </c>
+      <c r="W24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="R25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="S25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="T25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="U25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="V25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="W25" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="K26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="L26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="M26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="N26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="O26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="P26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>30001</v>
+      </c>
+      <c r="R26" t="n">
+        <v>15001</v>
+      </c>
+      <c r="S26" t="n">
+        <v>15001</v>
+      </c>
+      <c r="T26" t="n">
+        <v>15001</v>
+      </c>
+      <c r="U26" t="n">
+        <v>15001</v>
+      </c>
+      <c r="V26" t="n">
+        <v>15001</v>
+      </c>
+      <c r="W26" t="n">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="M27" t="n">
+        <v>501</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1001</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>25</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>25</v>
+      </c>
+      <c r="L28" t="n">
+        <v>25</v>
+      </c>
+      <c r="M28" t="n">
+        <v>25</v>
+      </c>
+      <c r="N28" t="n">
+        <v>25</v>
+      </c>
+      <c r="O28" t="n">
+        <v>25</v>
+      </c>
+      <c r="P28" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>25</v>
+      </c>
+      <c r="R28" t="n">
+        <v>25</v>
+      </c>
+      <c r="S28" t="n">
+        <v>25</v>
+      </c>
+      <c r="T28" t="n">
+        <v>25</v>
+      </c>
+      <c r="U28" t="n">
+        <v>25</v>
+      </c>
+      <c r="V28" t="n">
+        <v>25</v>
+      </c>
+      <c r="W28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10</v>
+      </c>
+      <c r="K29" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" t="n">
+        <v>10</v>
+      </c>
+      <c r="M29" t="n">
+        <v>10</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>10</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>10</v>
+      </c>
+      <c r="R29" t="n">
+        <v>10</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="n">
+        <v>10</v>
+      </c>
+      <c r="U29" t="n">
+        <v>10</v>
+      </c>
+      <c r="V29" t="n">
+        <v>10</v>
+      </c>
+      <c r="W29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="n">
+        <v>100</v>
+      </c>
+      <c r="C31" t="n">
+        <v>100</v>
+      </c>
+      <c r="D31" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" t="n">
+        <v>100</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" t="n">
+        <v>100</v>
+      </c>
+      <c r="H31" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" t="n">
+        <v>100</v>
+      </c>
+      <c r="J31" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" t="n">
+        <v>100</v>
+      </c>
+      <c r="L31" t="n">
+        <v>100</v>
+      </c>
+      <c r="M31" t="n">
+        <v>100</v>
+      </c>
+      <c r="N31" t="n">
+        <v>250</v>
+      </c>
+      <c r="O31" t="n">
+        <v>250</v>
+      </c>
+      <c r="P31" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>250</v>
+      </c>
+      <c r="R31" t="n">
+        <v>250</v>
+      </c>
+      <c r="S31" t="n">
+        <v>250</v>
+      </c>
+      <c r="T31" t="n">
+        <v>250</v>
+      </c>
+      <c r="U31" t="n">
+        <v>250</v>
+      </c>
+      <c r="V31" t="n">
+        <v>250</v>
+      </c>
+      <c r="W31" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>25</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" t="n">
+        <v>25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>25</v>
+      </c>
+      <c r="G32" t="n">
+        <v>25</v>
+      </c>
+      <c r="H32" t="n">
+        <v>25</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>25</v>
+      </c>
+      <c r="K32" t="n">
+        <v>25</v>
+      </c>
+      <c r="L32" t="n">
+        <v>25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>250</v>
+      </c>
+      <c r="N32" t="n">
+        <v>25</v>
+      </c>
+      <c r="O32" t="n">
+        <v>25</v>
+      </c>
+      <c r="P32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>25</v>
+      </c>
+      <c r="R32" t="n">
+        <v>100</v>
+      </c>
+      <c r="S32" t="n">
+        <v>100</v>
+      </c>
+      <c r="T32" t="n">
+        <v>100</v>
+      </c>
+      <c r="U32" t="n">
+        <v>100</v>
+      </c>
+      <c r="V32" t="n">
+        <v>100</v>
+      </c>
+      <c r="W32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="n">
+        <v>111</v>
+      </c>
+      <c r="C33" t="n">
+        <v>111</v>
+      </c>
+      <c r="D33" t="n">
+        <v>111</v>
+      </c>
+      <c r="E33" t="n">
+        <v>111</v>
+      </c>
+      <c r="F33" t="n">
+        <v>111</v>
+      </c>
+      <c r="G33" t="n">
+        <v>111</v>
+      </c>
+      <c r="H33" t="n">
+        <v>111</v>
+      </c>
+      <c r="I33" t="n">
+        <v>111</v>
+      </c>
+      <c r="J33" t="n">
+        <v>111</v>
+      </c>
+      <c r="K33" t="n">
+        <v>111</v>
+      </c>
+      <c r="L33" t="n">
+        <v>111</v>
+      </c>
+      <c r="M33" t="n">
+        <v>111</v>
+      </c>
+      <c r="N33" t="n">
+        <v>111</v>
+      </c>
+      <c r="O33" t="n">
+        <v>111</v>
+      </c>
+      <c r="P33" t="n">
+        <v>111</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>111</v>
+      </c>
+      <c r="R33" t="n">
+        <v>111</v>
+      </c>
+      <c r="S33" t="n">
+        <v>111</v>
+      </c>
+      <c r="T33" t="n">
+        <v>111</v>
+      </c>
+      <c r="U33" t="n">
+        <v>111</v>
+      </c>
+      <c r="V33" t="n">
+        <v>111</v>
+      </c>
+      <c r="W33" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" t="s">
+        <v>45</v>
+      </c>
+      <c r="P36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" t="s">
+        <v>45</v>
+      </c>
+      <c r="S36" t="s">
+        <v>45</v>
+      </c>
+      <c r="T36" t="s">
+        <v>45</v>
+      </c>
+      <c r="U36" t="s">
+        <v>45</v>
+      </c>
+      <c r="V36" t="s">
+        <v>45</v>
+      </c>
+      <c r="W36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>47</v>
+      </c>
+      <c r="R37" t="s">
+        <v>47</v>
+      </c>
+      <c r="S37" t="s">
+        <v>47</v>
+      </c>
+      <c r="T37" t="s">
+        <v>47</v>
+      </c>
+      <c r="U37" t="s">
+        <v>47</v>
+      </c>
+      <c r="V37" t="s">
+        <v>47</v>
+      </c>
+      <c r="W37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>49</v>
+      </c>
+      <c r="R38" t="s">
+        <v>49</v>
+      </c>
+      <c r="S38" t="s">
+        <v>49</v>
+      </c>
+      <c r="T38" t="s">
+        <v>49</v>
+      </c>
+      <c r="U38" t="s">
+        <v>49</v>
+      </c>
+      <c r="V38" t="s">
+        <v>49</v>
+      </c>
+      <c r="W38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>45</v>
+      </c>
+      <c r="R39" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" t="s">
+        <v>45</v>
+      </c>
+      <c r="V39" t="s">
+        <v>45</v>
+      </c>
+      <c r="W39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" t="s">
+        <v>52</v>
+      </c>
+      <c r="N40" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>52</v>
+      </c>
+      <c r="R40" t="s">
+        <v>52</v>
+      </c>
+      <c r="S40" t="s">
+        <v>52</v>
+      </c>
+      <c r="T40" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" t="s">
+        <v>52</v>
+      </c>
+      <c r="V40" t="s">
+        <v>52</v>
+      </c>
+      <c r="W40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" t="s">
+        <v>49</v>
+      </c>
+      <c r="L41" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" t="s">
+        <v>49</v>
+      </c>
+      <c r="N41" t="s">
+        <v>49</v>
+      </c>
+      <c r="O41" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41" t="s">
+        <v>49</v>
+      </c>
+      <c r="S41" t="s">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" t="s">
+        <v>45</v>
+      </c>
+      <c r="P42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" t="s">
+        <v>45</v>
+      </c>
+      <c r="S42" t="s">
+        <v>45</v>
+      </c>
+      <c r="T42" t="s">
+        <v>45</v>
+      </c>
+      <c r="U42" t="s">
+        <v>45</v>
+      </c>
+      <c r="V42" t="s">
+        <v>45</v>
+      </c>
+      <c r="W42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43" t="s">
+        <v>52</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>52</v>
+      </c>
+      <c r="R43" t="s">
+        <v>52</v>
+      </c>
+      <c r="S43" t="s">
+        <v>52</v>
+      </c>
+      <c r="T43" t="s">
+        <v>52</v>
+      </c>
+      <c r="U43" t="s">
+        <v>52</v>
+      </c>
+      <c r="V43" t="s">
+        <v>52</v>
+      </c>
+      <c r="W43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" t="s">
+        <v>49</v>
+      </c>
+      <c r="M44" t="s">
+        <v>49</v>
+      </c>
+      <c r="N44" t="s">
+        <v>49</v>
+      </c>
+      <c r="O44" t="s">
+        <v>49</v>
+      </c>
+      <c r="P44" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>49</v>
+      </c>
+      <c r="R44" t="s">
+        <v>49</v>
+      </c>
+      <c r="S44" t="s">
+        <v>76</v>
+      </c>
+      <c r="T44" t="s">
+        <v>76</v>
+      </c>
+      <c r="U44" t="s">
+        <v>76</v>
+      </c>
+      <c r="V44" t="s">
+        <v>76</v>
+      </c>
+      <c r="W44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" t="s">
+        <v>83</v>
+      </c>
+      <c r="K45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L45" t="s">
+        <v>84</v>
+      </c>
+      <c r="M45" t="s">
+        <v>85</v>
+      </c>
+      <c r="N45" t="s">
+        <v>86</v>
+      </c>
+      <c r="O45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>89</v>
+      </c>
+      <c r="R45" t="s">
+        <v>90</v>
+      </c>
+      <c r="S45" t="s">
+        <v>91</v>
+      </c>
+      <c r="T45" t="s">
+        <v>92</v>
+      </c>
+      <c r="U45" t="s">
+        <v>93</v>
+      </c>
+      <c r="V45" t="s">
+        <v>94</v>
+      </c>
+      <c r="W45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" t="s">
+        <v>96</v>
+      </c>
+      <c r="J46" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46" t="s">
+        <v>96</v>
+      </c>
+      <c r="L46" t="s">
+        <v>97</v>
+      </c>
+      <c r="M46" t="s">
+        <v>97</v>
+      </c>
+      <c r="N46" t="s">
+        <v>97</v>
+      </c>
+      <c r="O46" t="s">
+        <v>96</v>
+      </c>
+      <c r="P46" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>96</v>
+      </c>
+      <c r="R46" t="s">
+        <v>97</v>
+      </c>
+      <c r="S46" t="s">
+        <v>97</v>
+      </c>
+      <c r="T46" t="s">
+        <v>97</v>
+      </c>
+      <c r="U46" t="s">
+        <v>97</v>
+      </c>
+      <c r="V46" t="s">
+        <v>97</v>
+      </c>
+      <c r="W46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L47" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" t="s">
+        <v>59</v>
+      </c>
+      <c r="N47" t="s">
+        <v>59</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>59</v>
+      </c>
+      <c r="R47" t="s">
+        <v>59</v>
+      </c>
+      <c r="S47" t="s">
+        <v>59</v>
+      </c>
+      <c r="T47" t="s">
+        <v>59</v>
+      </c>
+      <c r="U47" t="s">
+        <v>59</v>
+      </c>
+      <c r="V47" t="s">
+        <v>59</v>
+      </c>
+      <c r="W47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" t="n">
+        <v>11.281</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10.158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="L49" t="s">
+        <v>70</v>
+      </c>
+      <c r="M49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="N50" t="s">
+        <v>70</v>
+      </c>
+      <c r="O50" t="s">
+        <v>70</v>
+      </c>
+      <c r="P50" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>70</v>
+      </c>
+      <c r="R50" t="s">
+        <v>70</v>
+      </c>
+      <c r="S50" t="s">
+        <v>70</v>
+      </c>
+      <c r="T50" t="s">
+        <v>70</v>
+      </c>
+      <c r="U50" t="s">
+        <v>70</v>
+      </c>
+      <c r="V50" t="s">
+        <v>70</v>
+      </c>
+      <c r="W50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="s">
+        <v>70</v>
+      </c>
+      <c r="S51" t="s">
+        <v>70</v>
+      </c>
+      <c r="T51" t="s">
+        <v>70</v>
+      </c>
+      <c r="U51" t="s">
+        <v>70</v>
+      </c>
+      <c r="V51" t="s">
+        <v>70</v>
+      </c>
+      <c r="W51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="N52" t="s">
+        <v>49</v>
+      </c>
+      <c r="O52" t="s">
+        <v>49</v>
+      </c>
+      <c r="P52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>49</v>
+      </c>
+      <c r="R52" t="s">
+        <v>49</v>
+      </c>
+      <c r="S52" t="s">
+        <v>49</v>
+      </c>
+      <c r="T52" t="s">
+        <v>49</v>
+      </c>
+      <c r="U52" t="s">
+        <v>49</v>
+      </c>
+      <c r="V52" t="s">
+        <v>49</v>
+      </c>
+      <c r="W52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="N53" t="s">
+        <v>49</v>
+      </c>
+      <c r="O53" t="s">
+        <v>49</v>
+      </c>
+      <c r="P53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>104</v>
+      </c>
+      <c r="R53" t="s">
+        <v>104</v>
+      </c>
+      <c r="S53" t="s">
+        <v>49</v>
+      </c>
+      <c r="T53" t="s">
+        <v>49</v>
+      </c>
+      <c r="U53" t="s">
+        <v>49</v>
+      </c>
+      <c r="V53" t="s">
+        <v>49</v>
+      </c>
+      <c r="W53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="P55" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>49</v>
+      </c>
+      <c r="R55" t="s">
+        <v>49</v>
+      </c>
+      <c r="S55" t="s">
+        <v>49</v>
+      </c>
+      <c r="T55" t="s">
+        <v>49</v>
+      </c>
+      <c r="U55" t="s">
+        <v>49</v>
+      </c>
+      <c r="V55" t="s">
+        <v>49</v>
+      </c>
+      <c r="W55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L37" workbookViewId="0">
+      <selection activeCell="AA47" sqref="AA47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="32.140625"/>
+    <col customWidth="1" max="19" min="19" width="7.140625"/>
+    <col customWidth="1" max="21" min="21" width="13.28515625"/>
+    <col customWidth="1" max="22" min="22" width="19.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.076000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.072</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.138</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.102</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.106</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.057774</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.011</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.025</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.019</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5.021</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.027</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.987</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.036</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.079</v>
+      </c>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T4" t="s">
+        <v>111</v>
+      </c>
+      <c r="U4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W4" t="s">
+        <v>111</v>
+      </c>
+      <c r="X4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S5" t="s">
+        <v>115</v>
+      </c>
+      <c r="T5" t="s">
+        <v>115</v>
+      </c>
+      <c r="U5" t="s">
+        <v>115</v>
+      </c>
+      <c r="V5" t="s">
+        <v>115</v>
+      </c>
+      <c r="W5" t="s">
+        <v>115</v>
+      </c>
+      <c r="X5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+      <c r="W9" t="s">
+        <v>68</v>
+      </c>
+      <c r="X9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" t="s">
+        <v>70</v>
+      </c>
+      <c r="U10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" t="s">
+        <v>70</v>
+      </c>
+      <c r="W10" t="s">
+        <v>68</v>
+      </c>
+      <c r="X10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="n">
+        <v>10</v>
+      </c>
+      <c r="U11" t="n">
+        <v>10</v>
+      </c>
+      <c r="V11" t="n">
+        <v>10</v>
+      </c>
+      <c r="W11" t="n">
+        <v>10</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>128</v>
+      </c>
+      <c r="C14" t="n">
+        <v>128</v>
+      </c>
+      <c r="D14" t="n">
+        <v>128</v>
+      </c>
+      <c r="E14" t="n">
+        <v>128</v>
+      </c>
+      <c r="F14" t="n">
+        <v>128</v>
+      </c>
+      <c r="G14" t="n">
+        <v>128</v>
+      </c>
+      <c r="H14" t="n">
+        <v>128</v>
+      </c>
+      <c r="I14" t="n">
+        <v>128</v>
+      </c>
+      <c r="J14" t="n">
+        <v>128</v>
+      </c>
+      <c r="K14" t="n">
+        <v>128</v>
+      </c>
+      <c r="L14" t="n">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>128</v>
+      </c>
+      <c r="N14" t="n">
+        <v>128</v>
+      </c>
+      <c r="O14" t="n">
+        <v>128</v>
+      </c>
+      <c r="P14" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>128</v>
+      </c>
+      <c r="R14" t="n">
+        <v>128</v>
+      </c>
+      <c r="S14" t="n">
+        <v>128</v>
+      </c>
+      <c r="T14" t="n">
+        <v>128</v>
+      </c>
+      <c r="U14" t="n">
+        <v>128</v>
+      </c>
+      <c r="V14" t="n">
+        <v>128</v>
+      </c>
+      <c r="W14" t="n">
+        <v>128</v>
+      </c>
+      <c r="X14" t="n">
+        <v>128</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="n">
+        <v>10</v>
+      </c>
+      <c r="U17" t="n">
+        <v>10</v>
+      </c>
+      <c r="V17" t="n">
+        <v>10</v>
+      </c>
+      <c r="W17" t="n">
+        <v>10</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>32</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32</v>
+      </c>
+      <c r="D20" t="n">
+        <v>32</v>
+      </c>
+      <c r="E20" t="n">
+        <v>32</v>
+      </c>
+      <c r="F20" t="n">
+        <v>32</v>
+      </c>
+      <c r="G20" t="n">
+        <v>32</v>
+      </c>
+      <c r="H20" t="n">
+        <v>32</v>
+      </c>
+      <c r="I20" t="n">
+        <v>32</v>
+      </c>
+      <c r="J20" t="n">
+        <v>32</v>
+      </c>
+      <c r="K20" t="n">
+        <v>32</v>
+      </c>
+      <c r="L20" t="n">
+        <v>32</v>
+      </c>
+      <c r="M20" t="n">
+        <v>32</v>
+      </c>
+      <c r="N20" t="n">
+        <v>32</v>
+      </c>
+      <c r="O20" t="n">
+        <v>32</v>
+      </c>
+      <c r="P20" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>32</v>
+      </c>
+      <c r="R20" t="n">
+        <v>32</v>
+      </c>
+      <c r="S20" t="n">
+        <v>32</v>
+      </c>
+      <c r="T20" t="n">
+        <v>32</v>
+      </c>
+      <c r="U20" t="n">
+        <v>32</v>
+      </c>
+      <c r="V20" t="n">
+        <v>32</v>
+      </c>
+      <c r="W20" t="n">
+        <v>32</v>
+      </c>
+      <c r="X20" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>64</v>
+      </c>
+      <c r="C21" t="n">
+        <v>64</v>
+      </c>
+      <c r="D21" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" t="n">
+        <v>64</v>
+      </c>
+      <c r="F21" t="n">
+        <v>64</v>
+      </c>
+      <c r="G21" t="n">
+        <v>64</v>
+      </c>
+      <c r="H21" t="n">
+        <v>64</v>
+      </c>
+      <c r="I21" t="n">
+        <v>64</v>
+      </c>
+      <c r="J21" t="n">
+        <v>64</v>
+      </c>
+      <c r="K21" t="n">
+        <v>64</v>
+      </c>
+      <c r="L21" t="n">
+        <v>64</v>
+      </c>
+      <c r="M21" t="n">
+        <v>64</v>
+      </c>
+      <c r="N21" t="n">
+        <v>64</v>
+      </c>
+      <c r="O21" t="n">
+        <v>64</v>
+      </c>
+      <c r="P21" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>64</v>
+      </c>
+      <c r="R21" t="n">
+        <v>64</v>
+      </c>
+      <c r="S21" t="n">
+        <v>64</v>
+      </c>
+      <c r="T21" t="n">
+        <v>64</v>
+      </c>
+      <c r="U21" t="n">
+        <v>64</v>
+      </c>
+      <c r="V21" t="n">
+        <v>64</v>
+      </c>
+      <c r="W21" t="n">
+        <v>64</v>
+      </c>
+      <c r="X21" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>256</v>
+      </c>
+      <c r="C22" t="n">
+        <v>256</v>
+      </c>
+      <c r="D22" t="n">
+        <v>64</v>
+      </c>
+      <c r="E22" t="n">
+        <v>64</v>
+      </c>
+      <c r="F22" t="n">
+        <v>64</v>
+      </c>
+      <c r="G22" t="n">
+        <v>64</v>
+      </c>
+      <c r="H22" t="n">
+        <v>64</v>
+      </c>
+      <c r="I22" t="n">
+        <v>64</v>
+      </c>
+      <c r="J22" t="n">
+        <v>64</v>
+      </c>
+      <c r="K22" t="n">
+        <v>64</v>
+      </c>
+      <c r="L22" t="n">
+        <v>64</v>
+      </c>
+      <c r="M22" t="n">
+        <v>64</v>
+      </c>
+      <c r="N22" t="n">
+        <v>64</v>
+      </c>
+      <c r="O22" t="n">
+        <v>64</v>
+      </c>
+      <c r="P22" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>64</v>
+      </c>
+      <c r="R22" t="n">
+        <v>64</v>
+      </c>
+      <c r="S22" t="n">
+        <v>64</v>
+      </c>
+      <c r="T22" t="n">
+        <v>64</v>
+      </c>
+      <c r="U22" t="n">
+        <v>64</v>
+      </c>
+      <c r="V22" t="n">
+        <v>64</v>
+      </c>
+      <c r="W22" t="n">
+        <v>64</v>
+      </c>
+      <c r="X22" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>64</v>
+      </c>
+      <c r="C23" t="n">
+        <v>256</v>
+      </c>
+      <c r="D23" t="n">
+        <v>64</v>
+      </c>
+      <c r="E23" t="n">
+        <v>64</v>
+      </c>
+      <c r="F23" t="n">
+        <v>64</v>
+      </c>
+      <c r="G23" t="n">
+        <v>64</v>
+      </c>
+      <c r="H23" t="n">
+        <v>64</v>
+      </c>
+      <c r="I23" t="n">
+        <v>64</v>
+      </c>
+      <c r="J23" t="n">
+        <v>64</v>
+      </c>
+      <c r="K23" t="n">
+        <v>64</v>
+      </c>
+      <c r="L23" t="n">
+        <v>64</v>
+      </c>
+      <c r="M23" t="n">
+        <v>64</v>
+      </c>
+      <c r="N23" t="n">
+        <v>64</v>
+      </c>
+      <c r="O23" t="n">
+        <v>64</v>
+      </c>
+      <c r="P23" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>64</v>
+      </c>
+      <c r="R23" t="n">
+        <v>64</v>
+      </c>
+      <c r="S23" t="n">
+        <v>64</v>
+      </c>
+      <c r="T23" t="n">
+        <v>64</v>
+      </c>
+      <c r="U23" t="n">
+        <v>64</v>
+      </c>
+      <c r="V23" t="n">
+        <v>64</v>
+      </c>
+      <c r="W23" t="n">
+        <v>64</v>
+      </c>
+      <c r="X23" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>64</v>
+      </c>
+      <c r="C24" t="n">
+        <v>64</v>
+      </c>
+      <c r="D24" t="n">
+        <v>64</v>
+      </c>
+      <c r="E24" t="n">
+        <v>64</v>
+      </c>
+      <c r="F24" t="n">
+        <v>64</v>
+      </c>
+      <c r="G24" t="n">
+        <v>64</v>
+      </c>
+      <c r="H24" t="n">
+        <v>64</v>
+      </c>
+      <c r="I24" t="n">
+        <v>64</v>
+      </c>
+      <c r="J24" t="n">
+        <v>64</v>
+      </c>
+      <c r="K24" t="n">
+        <v>64</v>
+      </c>
+      <c r="L24" t="n">
+        <v>64</v>
+      </c>
+      <c r="M24" t="n">
+        <v>64</v>
+      </c>
+      <c r="N24" t="n">
+        <v>64</v>
+      </c>
+      <c r="O24" t="n">
+        <v>64</v>
+      </c>
+      <c r="P24" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>64</v>
+      </c>
+      <c r="R24" t="n">
+        <v>64</v>
+      </c>
+      <c r="S24" t="n">
+        <v>64</v>
+      </c>
+      <c r="T24" t="n">
+        <v>64</v>
+      </c>
+      <c r="U24" t="n">
+        <v>64</v>
+      </c>
+      <c r="V24" t="n">
+        <v>64</v>
+      </c>
+      <c r="W24" t="n">
+        <v>64</v>
+      </c>
+      <c r="X24" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>64</v>
+      </c>
+      <c r="C25" t="n">
+        <v>64</v>
+      </c>
+      <c r="D25" t="n">
+        <v>64</v>
+      </c>
+      <c r="E25" t="n">
+        <v>64</v>
+      </c>
+      <c r="F25" t="n">
+        <v>64</v>
+      </c>
+      <c r="G25" t="n">
+        <v>64</v>
+      </c>
+      <c r="H25" t="n">
+        <v>64</v>
+      </c>
+      <c r="I25" t="n">
+        <v>64</v>
+      </c>
+      <c r="J25" t="n">
+        <v>64</v>
+      </c>
+      <c r="K25" t="n">
+        <v>64</v>
+      </c>
+      <c r="L25" t="n">
+        <v>64</v>
+      </c>
+      <c r="M25" t="n">
+        <v>64</v>
+      </c>
+      <c r="N25" t="n">
+        <v>64</v>
+      </c>
+      <c r="O25" t="n">
+        <v>64</v>
+      </c>
+      <c r="P25" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>64</v>
+      </c>
+      <c r="R25" t="n">
+        <v>64</v>
+      </c>
+      <c r="S25" t="n">
+        <v>64</v>
+      </c>
+      <c r="T25" t="n">
+        <v>64</v>
+      </c>
+      <c r="U25" t="n">
+        <v>64</v>
+      </c>
+      <c r="V25" t="n">
+        <v>64</v>
+      </c>
+      <c r="W25" t="n">
+        <v>64</v>
+      </c>
+      <c r="X25" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>117</v>
+      </c>
+      <c r="R26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S26" t="s">
+        <v>117</v>
+      </c>
+      <c r="T26" t="s">
+        <v>117</v>
+      </c>
+      <c r="U26" t="s">
+        <v>117</v>
+      </c>
+      <c r="V26" t="s">
+        <v>117</v>
+      </c>
+      <c r="W26" t="s">
+        <v>117</v>
+      </c>
+      <c r="X26" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" t="s">
+        <v>122</v>
+      </c>
+      <c r="N27" t="s">
+        <v>122</v>
+      </c>
+      <c r="O27" t="s">
+        <v>122</v>
+      </c>
+      <c r="P27" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>122</v>
+      </c>
+      <c r="R27" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" t="s">
+        <v>122</v>
+      </c>
+      <c r="T27" t="s">
+        <v>122</v>
+      </c>
+      <c r="U27" t="s">
+        <v>122</v>
+      </c>
+      <c r="V27" t="s">
+        <v>122</v>
+      </c>
+      <c r="W27" t="s">
+        <v>122</v>
+      </c>
+      <c r="X27" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" t="s">
+        <v>75</v>
+      </c>
+      <c r="O28" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>75</v>
+      </c>
+      <c r="R28" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U28" t="s">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="I29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="K29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="P29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="R29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="S29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="T29" t="n">
+        <v>135000</v>
+      </c>
+      <c r="U29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="V29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="X29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="I30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="J30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="K30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="L30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="N30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="O30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="P30" t="n">
+        <v>30001</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>100001</v>
+      </c>
+      <c r="R30" t="n">
+        <v>40001</v>
+      </c>
+      <c r="S30" t="n">
+        <v>20001</v>
+      </c>
+      <c r="T30" t="n">
+        <v>50001</v>
+      </c>
+      <c r="U30" t="n">
+        <v>50001</v>
+      </c>
+      <c r="V30" t="n">
+        <v>75001</v>
+      </c>
+      <c r="W30" t="n">
+        <v>75001</v>
+      </c>
+      <c r="X30" t="n">
+        <v>75001</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>75001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5001</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>8001</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1001</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1001</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1501</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1501</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1201</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1201</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1201</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>25</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" t="n">
+        <v>25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>25</v>
+      </c>
+      <c r="G32" t="n">
+        <v>25</v>
+      </c>
+      <c r="H32" t="n">
+        <v>25</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>25</v>
+      </c>
+      <c r="K32" t="n">
+        <v>25</v>
+      </c>
+      <c r="L32" t="n">
+        <v>25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>25</v>
+      </c>
+      <c r="N32" t="n">
+        <v>25</v>
+      </c>
+      <c r="O32" t="n">
+        <v>25</v>
+      </c>
+      <c r="P32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>100</v>
+      </c>
+      <c r="R32" t="n">
+        <v>25</v>
+      </c>
+      <c r="S32" t="n">
+        <v>25</v>
+      </c>
+      <c r="T32" t="n">
+        <v>25</v>
+      </c>
+      <c r="U32" t="n">
+        <v>25</v>
+      </c>
+      <c r="V32" t="n">
+        <v>25</v>
+      </c>
+      <c r="W32" t="n">
+        <v>25</v>
+      </c>
+      <c r="X32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>10</v>
+      </c>
+      <c r="K33" t="n">
+        <v>10</v>
+      </c>
+      <c r="L33" t="n">
+        <v>10</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10</v>
+      </c>
+      <c r="O33" t="n">
+        <v>10</v>
+      </c>
+      <c r="P33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>10</v>
+      </c>
+      <c r="R33" t="n">
+        <v>10</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="n">
+        <v>10</v>
+      </c>
+      <c r="U33" t="n">
+        <v>10</v>
+      </c>
+      <c r="V33" t="n">
+        <v>10</v>
+      </c>
+      <c r="W33" t="n">
+        <v>10</v>
+      </c>
+      <c r="X33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="n">
+        <v>250</v>
+      </c>
+      <c r="C35" t="n">
+        <v>250</v>
+      </c>
+      <c r="D35" t="n">
+        <v>250</v>
+      </c>
+      <c r="E35" t="n">
+        <v>250</v>
+      </c>
+      <c r="F35" t="n">
+        <v>250</v>
+      </c>
+      <c r="G35" t="n">
+        <v>250</v>
+      </c>
+      <c r="H35" t="n">
+        <v>250</v>
+      </c>
+      <c r="I35" t="n">
+        <v>250</v>
+      </c>
+      <c r="J35" t="n">
+        <v>250</v>
+      </c>
+      <c r="K35" t="n">
+        <v>250</v>
+      </c>
+      <c r="L35" t="n">
+        <v>250</v>
+      </c>
+      <c r="M35" t="n">
+        <v>250</v>
+      </c>
+      <c r="N35" t="n">
+        <v>250</v>
+      </c>
+      <c r="O35" t="n">
+        <v>250</v>
+      </c>
+      <c r="P35" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>500</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
+        <v>100</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>100</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>5</v>
+      </c>
+      <c r="P36" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>160</v>
+      </c>
+      <c r="R36" t="n">
+        <v>500</v>
+      </c>
+      <c r="S36" t="n">
+        <v>500</v>
+      </c>
+      <c r="T36" t="n">
+        <v>200</v>
+      </c>
+      <c r="U36" t="n">
+        <v>200</v>
+      </c>
+      <c r="V36" t="n">
+        <v>200</v>
+      </c>
+      <c r="W36" t="n">
+        <v>200</v>
+      </c>
+      <c r="X36" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="n">
+        <v>55</v>
+      </c>
+      <c r="C37" t="n">
+        <v>55</v>
+      </c>
+      <c r="D37" t="n">
+        <v>55</v>
+      </c>
+      <c r="E37" t="n">
+        <v>55</v>
+      </c>
+      <c r="F37" t="n">
+        <v>55</v>
+      </c>
+      <c r="G37" t="n">
+        <v>55</v>
+      </c>
+      <c r="H37" t="n">
+        <v>55</v>
+      </c>
+      <c r="I37" t="n">
+        <v>55</v>
+      </c>
+      <c r="J37" t="n">
+        <v>55</v>
+      </c>
+      <c r="K37" t="n">
+        <v>55</v>
+      </c>
+      <c r="L37" t="n">
+        <v>55</v>
+      </c>
+      <c r="M37" t="n">
+        <v>55</v>
+      </c>
+      <c r="N37" t="n">
+        <v>55</v>
+      </c>
+      <c r="O37" t="n">
+        <v>55</v>
+      </c>
+      <c r="P37" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>55</v>
+      </c>
+      <c r="R37" t="n">
+        <v>55</v>
+      </c>
+      <c r="S37" t="n">
+        <v>55</v>
+      </c>
+      <c r="T37" t="n">
+        <v>55</v>
+      </c>
+      <c r="U37" t="n">
+        <v>55</v>
+      </c>
+      <c r="V37" t="n">
+        <v>55</v>
+      </c>
+      <c r="W37" t="n">
+        <v>55</v>
+      </c>
+      <c r="X37" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M40" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>45</v>
+      </c>
+      <c r="R40" t="s">
+        <v>45</v>
+      </c>
+      <c r="S40" t="s">
+        <v>45</v>
+      </c>
+      <c r="T40" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40" t="s">
+        <v>45</v>
+      </c>
+      <c r="V40" t="s">
+        <v>45</v>
+      </c>
+      <c r="W40" t="s">
+        <v>45</v>
+      </c>
+      <c r="X40" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" t="s">
+        <v>47</v>
+      </c>
+      <c r="P41" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>47</v>
+      </c>
+      <c r="R41" t="s">
+        <v>47</v>
+      </c>
+      <c r="S41" t="s">
+        <v>47</v>
+      </c>
+      <c r="T41" t="s">
+        <v>47</v>
+      </c>
+      <c r="U41" t="s">
+        <v>47</v>
+      </c>
+      <c r="V41" t="s">
+        <v>47</v>
+      </c>
+      <c r="W41" t="s">
+        <v>47</v>
+      </c>
+      <c r="X41" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L42" t="s">
+        <v>124</v>
+      </c>
+      <c r="M42" t="s">
+        <v>124</v>
+      </c>
+      <c r="N42" t="s">
+        <v>124</v>
+      </c>
+      <c r="O42" t="s">
+        <v>124</v>
+      </c>
+      <c r="P42" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>124</v>
+      </c>
+      <c r="R42" t="s">
+        <v>124</v>
+      </c>
+      <c r="S42" t="s">
+        <v>124</v>
+      </c>
+      <c r="T42" t="s">
+        <v>124</v>
+      </c>
+      <c r="U42" t="s">
+        <v>124</v>
+      </c>
+      <c r="V42" t="s">
+        <v>124</v>
+      </c>
+      <c r="W42" t="s">
+        <v>124</v>
+      </c>
+      <c r="X42" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6990000000000001</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" t="s">
+        <v>126</v>
+      </c>
+      <c r="M44" t="s">
+        <v>126</v>
+      </c>
+      <c r="N44" t="s">
+        <v>49</v>
+      </c>
+      <c r="O44" t="s">
+        <v>49</v>
+      </c>
+      <c r="P44" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>49</v>
+      </c>
+      <c r="R44" t="s">
+        <v>49</v>
+      </c>
+      <c r="S44" t="s">
+        <v>49</v>
+      </c>
+      <c r="T44" t="s">
+        <v>49</v>
+      </c>
+      <c r="U44" t="s">
+        <v>49</v>
+      </c>
+      <c r="V44" t="s">
+        <v>49</v>
+      </c>
+      <c r="W44" t="s">
+        <v>49</v>
+      </c>
+      <c r="X44" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M45" t="s">
+        <v>45</v>
+      </c>
+      <c r="N45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O45" t="s">
+        <v>45</v>
+      </c>
+      <c r="P45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>45</v>
+      </c>
+      <c r="R45" t="s">
+        <v>45</v>
+      </c>
+      <c r="S45" t="s">
+        <v>45</v>
+      </c>
+      <c r="T45" t="s">
+        <v>45</v>
+      </c>
+      <c r="U45" t="s">
+        <v>45</v>
+      </c>
+      <c r="V45" t="s">
+        <v>45</v>
+      </c>
+      <c r="W45" t="s">
+        <v>45</v>
+      </c>
+      <c r="X45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" t="s">
+        <v>52</v>
+      </c>
+      <c r="N46" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>52</v>
+      </c>
+      <c r="R46" t="s">
+        <v>47</v>
+      </c>
+      <c r="S46" t="s">
+        <v>52</v>
+      </c>
+      <c r="T46" t="s">
+        <v>52</v>
+      </c>
+      <c r="U46" t="s">
+        <v>52</v>
+      </c>
+      <c r="V46" t="s">
+        <v>52</v>
+      </c>
+      <c r="W46" t="s">
+        <v>52</v>
+      </c>
+      <c r="X46" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" t="s">
+        <v>76</v>
+      </c>
+      <c r="M47" t="s">
+        <v>76</v>
+      </c>
+      <c r="N47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>76</v>
+      </c>
+      <c r="R47" t="s">
+        <v>124</v>
+      </c>
+      <c r="S47" t="s">
+        <v>76</v>
+      </c>
+      <c r="T47" t="s">
+        <v>76</v>
+      </c>
+      <c r="U47" t="s">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" t="s">
+        <v>49</v>
+      </c>
+      <c r="L49" t="s">
+        <v>49</v>
+      </c>
+      <c r="M49" t="s">
+        <v>49</v>
+      </c>
+      <c r="N49" t="s">
+        <v>49</v>
+      </c>
+      <c r="O49" t="s">
+        <v>49</v>
+      </c>
+      <c r="P49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>49</v>
+      </c>
+      <c r="R49" t="s">
+        <v>49</v>
+      </c>
+      <c r="S49" t="s">
+        <v>49</v>
+      </c>
+      <c r="T49" t="s">
+        <v>49</v>
+      </c>
+      <c r="U49" t="s">
+        <v>49</v>
+      </c>
+      <c r="V49" t="s">
+        <v>49</v>
+      </c>
+      <c r="W49" t="s">
+        <v>49</v>
+      </c>
+      <c r="X49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50" t="s">
+        <v>45</v>
+      </c>
+      <c r="M50" t="s">
+        <v>45</v>
+      </c>
+      <c r="N50" t="s">
+        <v>45</v>
+      </c>
+      <c r="O50" t="s">
+        <v>45</v>
+      </c>
+      <c r="P50" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>45</v>
+      </c>
+      <c r="R50" t="s">
+        <v>45</v>
+      </c>
+      <c r="S50" t="s">
+        <v>45</v>
+      </c>
+      <c r="T50" t="s">
+        <v>45</v>
+      </c>
+      <c r="U50" t="s">
+        <v>45</v>
+      </c>
+      <c r="V50" t="s">
+        <v>45</v>
+      </c>
+      <c r="W50" t="s">
+        <v>45</v>
+      </c>
+      <c r="X50" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" t="s">
+        <v>52</v>
+      </c>
+      <c r="N51" t="s">
+        <v>52</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>52</v>
+      </c>
+      <c r="R51" t="s">
+        <v>52</v>
+      </c>
+      <c r="S51" t="s">
+        <v>52</v>
+      </c>
+      <c r="T51" t="s">
+        <v>52</v>
+      </c>
+      <c r="U51" t="s">
+        <v>52</v>
+      </c>
+      <c r="V51" t="s">
+        <v>52</v>
+      </c>
+      <c r="W51" t="s">
+        <v>52</v>
+      </c>
+      <c r="X51" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+      <c r="K52" t="s">
+        <v>76</v>
+      </c>
+      <c r="L52" t="s">
+        <v>76</v>
+      </c>
+      <c r="M52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N52" t="s">
+        <v>127</v>
+      </c>
+      <c r="O52" t="s">
+        <v>127</v>
+      </c>
+      <c r="P52" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>127</v>
+      </c>
+      <c r="R52" t="s">
+        <v>127</v>
+      </c>
+      <c r="S52" t="s">
+        <v>127</v>
+      </c>
+      <c r="T52" t="s">
+        <v>127</v>
+      </c>
+      <c r="U52" t="s">
+        <v>127</v>
+      </c>
+      <c r="V52" t="s">
+        <v>127</v>
+      </c>
+      <c r="W52" t="s">
+        <v>127</v>
+      </c>
+      <c r="X52" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" t="s">
+        <v>49</v>
+      </c>
+      <c r="K54" t="s">
+        <v>49</v>
+      </c>
+      <c r="L54" t="s">
+        <v>49</v>
+      </c>
+      <c r="M54" t="s">
+        <v>49</v>
+      </c>
+      <c r="N54" t="s">
+        <v>49</v>
+      </c>
+      <c r="O54" t="s">
+        <v>49</v>
+      </c>
+      <c r="P54" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>49</v>
+      </c>
+      <c r="R54" t="s">
+        <v>49</v>
+      </c>
+      <c r="S54" t="s">
+        <v>49</v>
+      </c>
+      <c r="T54" t="s">
+        <v>49</v>
+      </c>
+      <c r="U54" t="s">
+        <v>49</v>
+      </c>
+      <c r="V54" t="s">
+        <v>49</v>
+      </c>
+      <c r="W54" t="s">
+        <v>49</v>
+      </c>
+      <c r="X54" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J55" t="s">
+        <v>136</v>
+      </c>
+      <c r="K55" t="s">
+        <v>137</v>
+      </c>
+      <c r="L55" t="s">
+        <v>138</v>
+      </c>
+      <c r="M55" t="s">
+        <v>139</v>
+      </c>
+      <c r="N55" t="s">
+        <v>140</v>
+      </c>
+      <c r="O55" t="s">
+        <v>141</v>
+      </c>
+      <c r="P55" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>143</v>
+      </c>
+      <c r="R55" t="s">
+        <v>144</v>
+      </c>
+      <c r="S55" t="s">
+        <v>145</v>
+      </c>
+      <c r="T55" t="s">
+        <v>146</v>
+      </c>
+      <c r="U55" t="s">
+        <v>147</v>
+      </c>
+      <c r="V55" t="s">
+        <v>148</v>
+      </c>
+      <c r="W55" t="s">
+        <v>149</v>
+      </c>
+      <c r="X55" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" t="s">
+        <v>96</v>
+      </c>
+      <c r="I56" t="s">
+        <v>96</v>
+      </c>
+      <c r="J56" t="s">
+        <v>96</v>
+      </c>
+      <c r="K56" t="s">
+        <v>96</v>
+      </c>
+      <c r="L56" t="s">
+        <v>96</v>
+      </c>
+      <c r="M56" t="s">
+        <v>96</v>
+      </c>
+      <c r="N56" t="s">
+        <v>96</v>
+      </c>
+      <c r="O56" t="s">
+        <v>96</v>
+      </c>
+      <c r="P56" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>96</v>
+      </c>
+      <c r="R56" t="s">
+        <v>96</v>
+      </c>
+      <c r="S56" t="s">
+        <v>96</v>
+      </c>
+      <c r="T56" t="s">
+        <v>96</v>
+      </c>
+      <c r="U56" t="s">
+        <v>96</v>
+      </c>
+      <c r="V56" t="s">
+        <v>96</v>
+      </c>
+      <c r="W56" t="s">
+        <v>96</v>
+      </c>
+      <c r="X56" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" t="s">
+        <v>152</v>
+      </c>
+      <c r="H57" t="s">
+        <v>152</v>
+      </c>
+      <c r="I57" t="s">
+        <v>152</v>
+      </c>
+      <c r="J57" t="s">
+        <v>152</v>
+      </c>
+      <c r="K57" t="s">
+        <v>152</v>
+      </c>
+      <c r="L57" t="s">
+        <v>152</v>
+      </c>
+      <c r="M57" t="s">
+        <v>152</v>
+      </c>
+      <c r="N57" t="s">
+        <v>152</v>
+      </c>
+      <c r="O57" t="s">
+        <v>152</v>
+      </c>
+      <c r="P57" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>152</v>
+      </c>
+      <c r="R57" t="s">
+        <v>152</v>
+      </c>
+      <c r="S57" t="s">
+        <v>152</v>
+      </c>
+      <c r="T57" t="s">
+        <v>152</v>
+      </c>
+      <c r="U57" t="s">
+        <v>152</v>
+      </c>
+      <c r="V57" t="s">
+        <v>152</v>
+      </c>
+      <c r="W57" t="s">
+        <v>152</v>
+      </c>
+      <c r="X57" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="S59" t="s">
+        <v>155</v>
+      </c>
+      <c r="T59" t="s">
+        <v>156</v>
+      </c>
+      <c r="U59" t="s">
+        <v>157</v>
+      </c>
+      <c r="V59" t="s">
+        <v>158</v>
+      </c>
+      <c r="W59" t="s">
+        <v>159</v>
+      </c>
+      <c r="X59" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" t="s">
+        <v>160</v>
+      </c>
+      <c r="T60" t="s">
+        <v>156</v>
+      </c>
+      <c r="U60" t="s">
+        <v>161</v>
+      </c>
+      <c r="V60" t="s">
+        <v>162</v>
+      </c>
+      <c r="W60" t="s">
+        <v>163</v>
+      </c>
+      <c r="X60" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="T61" t="n">
+        <v>9</v>
+      </c>
+      <c r="U61" t="n">
+        <v>9</v>
+      </c>
+      <c r="V61" t="n">
+        <v>9</v>
+      </c>
+      <c r="W61" t="n">
+        <v>9</v>
+      </c>
+      <c r="X61" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" t="s">
+        <v>165</v>
+      </c>
+      <c r="T62" t="s">
+        <v>166</v>
+      </c>
+      <c r="U62" t="s">
+        <v>167</v>
+      </c>
+      <c r="V62" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" t="s">
+        <v>169</v>
+      </c>
+      <c r="V63" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" t="s">
+        <v>171</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" t="s">
+        <v>172</v>
+      </c>
+      <c r="W65" t="s">
+        <v>173</v>
+      </c>
+      <c r="X65" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" t="s">
+        <v>176</v>
+      </c>
+      <c r="W66" t="s">
+        <v>177</v>
+      </c>
+      <c r="X66" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" t="s">
+        <v>180</v>
+      </c>
+      <c r="W67" t="s">
+        <v>181</v>
+      </c>
+      <c r="X67" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" t="s">
+        <v>184</v>
+      </c>
+      <c r="W68" t="s">
+        <v>185</v>
+      </c>
+      <c r="X68" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/hyperparam_search.xlsx
+++ b/hyperparam_search.xlsx
@@ -9,6 +9,7 @@
     <s:sheet name="age_small_regress" sheetId="1" r:id="rId1"/>
     <s:sheet name="age_small" sheetId="2" r:id="rId2"/>
     <s:sheet name="biobank" sheetId="3" r:id="rId3"/>
+    <s:sheet name="biobank_gender" sheetId="4" r:id="rId4"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>mix_type</t>
   </si>
@@ -583,6 +584,63 @@
   </si>
   <si>
     <t>ONLY_GEN</t>
+  </si>
+  <si>
+    <t>(32, 16, 2)</t>
+  </si>
+  <si>
+    <t>frozen_init_bio_gender_ch128_64_n32_16.pth</t>
+  </si>
+  <si>
+    <t>(200, 400, 800,)</t>
+  </si>
+  <si>
+    <t>(50, 100, 200,)</t>
+  </si>
+  <si>
+    <t>ConditionalFCWGAN_gender</t>
+  </si>
+  <si>
+    <t>RUN_MODE</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>biobank_gender_class_run_1</t>
+  </si>
+  <si>
+    <t>biobank_gender_exp_debug_4</t>
+  </si>
+  <si>
+    <t>biobank_gender_exp_debug_5</t>
+  </si>
+  <si>
+    <t>biobank_gender</t>
+  </si>
+  <si>
+    <t>[0.7209663152694702, 0.7191515045166016, 0.7065395135879516]</t>
+  </si>
+  <si>
+    <t>[0.7478141231536866, 0.782969292640686, 0.7210689873695374]</t>
+  </si>
+  <si>
+    <t>[0.71151733, 0.7149255, 0.6777173]</t>
+  </si>
+  <si>
+    <t>[0.754367, 0.8130876, 0.71085227]</t>
+  </si>
+  <si>
+    <t>[[0.6622629632949829, 0.6563349828720093], [0.6437088646888733, 0.6484025831222534], [0.6390574374198914, 0.6395192823410034]]</t>
+  </si>
+  <si>
+    <t>[[0.6558641061782837, 0.6575428509712219], [0.6401544513702393, 0.6512364358901978], [0.6384733185768128, 0.636948543548584]]</t>
+  </si>
+  <si>
+    <t>[[0.6579092, 0.6562309], [0.66596437, 0.6685334], [0.6383208, 0.64105546]]</t>
+  </si>
+  <si>
+    <t>[[0.6783805, 0.6594309], [0.6665178, 0.6717219], [0.6453754, 0.6289982]]</t>
   </si>
 </sst>
 </file>
@@ -5698,7 +5756,6 @@
       <c r="S1" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" t="s"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
@@ -5758,7 +5815,6 @@
       <c r="S2" t="n">
         <v>5.079</v>
       </c>
-      <c r="Y2" t="s"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
@@ -10106,7 +10162,6 @@
       <c r="V62" t="s">
         <v>168</v>
       </c>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
@@ -10115,7 +10170,6 @@
       <c r="V63" t="s">
         <v>170</v>
       </c>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
@@ -10193,6 +10247,938 @@
       </c>
       <c r="Y69" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D2" t="s"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="n">
+        <v>128</v>
+      </c>
+      <c r="C13" t="n">
+        <v>128</v>
+      </c>
+      <c r="D13" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>32</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32</v>
+      </c>
+      <c r="D20" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>64</v>
+      </c>
+      <c r="C21" t="n">
+        <v>64</v>
+      </c>
+      <c r="D21" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>64</v>
+      </c>
+      <c r="C22" t="n">
+        <v>64</v>
+      </c>
+      <c r="D22" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>64</v>
+      </c>
+      <c r="C23" t="n">
+        <v>64</v>
+      </c>
+      <c r="D23" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>64</v>
+      </c>
+      <c r="C24" t="n">
+        <v>64</v>
+      </c>
+      <c r="D24" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>64</v>
+      </c>
+      <c r="C25" t="n">
+        <v>64</v>
+      </c>
+      <c r="D25" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C33" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>101</v>
+      </c>
+      <c r="D34" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1201</v>
+      </c>
+      <c r="C35" t="n">
+        <v>11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>25</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>100</v>
+      </c>
+      <c r="C39" t="n">
+        <v>50</v>
+      </c>
+      <c r="D39" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>200</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>55</v>
+      </c>
+      <c r="C41" t="n">
+        <v>55</v>
+      </c>
+      <c r="D41" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D67" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/hyperparam_search.xlsx
+++ b/hyperparam_search.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
   <si>
     <t>mix_type</t>
   </si>
@@ -616,6 +616,18 @@
     <t>biobank_gender_exp_debug_5</t>
   </si>
   <si>
+    <t>biobank_gender_exp_run_0</t>
+  </si>
+  <si>
+    <t>biobank_gender_exp_run_2</t>
+  </si>
+  <si>
+    <t>biobank_gender_exp_run_4</t>
+  </si>
+  <si>
+    <t>biobank_gender_exp_run_5</t>
+  </si>
+  <si>
     <t>biobank_gender</t>
   </si>
   <si>
@@ -625,22 +637,70 @@
     <t>[0.7478141231536866, 0.782969292640686, 0.7210689873695374]</t>
   </si>
   <si>
+    <t>[0.7041589269638061, 0.6922434887886048, 0.6975631403923035, 0.7795256719589233, 0.7112330493927002, 0.762762843132019, 0.8241138772964478, 0.787511305809021]</t>
+  </si>
+  <si>
+    <t>[0.6976415309906006, 0.6940246028900147, 0.695862603187561, 0.691049931049347, 0.6962026586532593, 0.6884167919158936, 0.7046173324584961, 0.6878603634834289]</t>
+  </si>
+  <si>
+    <t>[0.7130541224479675, 0.6963889722824097, 0.6938127975463867, 0.7087703347206116, 0.6887796816825866, 0.6991166162490845, 0.7323232488632202, 0.6877620329856873]</t>
+  </si>
+  <si>
+    <t>[0.6184694242477417, 0.593767306804657, 0.5284670271873474, 0.4551263542175293, 0.444149715423584, 0.3878982412815094, 0.3657223215103149, 0.3374272651672363]</t>
+  </si>
+  <si>
     <t>[0.71151733, 0.7149255, 0.6777173]</t>
   </si>
   <si>
     <t>[0.754367, 0.8130876, 0.71085227]</t>
   </si>
   <si>
+    <t>[0.676044, 0.6768617, 0.6917853, 0.764275, 0.73075426, 0.7504631, 0.81525195, 0.78300977]</t>
+  </si>
+  <si>
+    <t>[0.68871754, 0.6898745, 0.6899905, 0.6885963, 0.6910186, 0.690857, 0.701279, 0.6897163]</t>
+  </si>
+  <si>
+    <t>[0.683057, 0.68534553, 0.68983483, 0.69555616, 0.6840755, 0.69696075, 0.72558194, 0.6863704]</t>
+  </si>
+  <si>
+    <t>[0.43634242, 0.5312483, 0.5157457, 0.44277602, 0.42375547, 0.3922523, 0.3859342, 0.37122923]</t>
+  </si>
+  <si>
     <t>[[0.6622629632949829, 0.6563349828720093], [0.6437088646888733, 0.6484025831222534], [0.6390574374198914, 0.6395192823410034]]</t>
   </si>
   <si>
     <t>[[0.6558641061782837, 0.6575428509712219], [0.6401544513702393, 0.6512364358901978], [0.6384733185768128, 0.636948543548584]]</t>
   </si>
   <si>
+    <t>[[0.5486931233406067, 0.582666657447815, 0.5555836839675903, 0.5732930030822754, 0.535636206626892, 0.613762619972229], [0.5594594602584839, 0.5107801470756531, 0.48679056882858274, 0.5444870748519898, 0.5489981226921081, 0.4914799013137817], [0.48111341285705567, 0.4934643440246582, 0.4343594014644623, 0.46650332236289976, 0.4683071801662445, 0.48428901767730714], [0.41649178647994994, 0.4445568082332611, 0.40684894800186155, 0.423980007648468, 0.41167125701904295, 0.421896124124527], [0.40821511030197144, 0.4095149555206299, 0.4024962294101715, 0.3857937474250793, 0.41141997861862184, 0.40081805443763735], [0.36223342180252077, 0.3683549180030823, 0.35652248430252076, 0.3658861527442932, 0.3704251894950867, 0.36392414474487306], [0.34990777230262754, 0.3512329869270325, 0.33546356558799745, 0.3346155021190643, 0.3412754590511322, 0.3336098999977112], [0.3271188712120056, 0.31758891344070433, 0.32366516518592836, 0.31892503213882445, 0.3195197262763977, 0.3148295683860779]]</t>
+  </si>
+  <si>
+    <t>[[0.5737321567535401, 0.5442133669853211, 0.5852957463264465, 0.547770525932312, 0.5519459085464478, 0.5515008702278137], [0.5048125853538513, 0.5022151551246643, 0.4956783151626587, 0.553413025856018, 0.5705832943916321, 0.5142328095436096], [0.48322554445266724, 0.45408485412597654, 0.47435631799697875, 0.4469625144004822, 0.4755009489059448, 0.4515525033473968], [0.4064982850551605, 0.4237956998348236, 0.4327864708900452, 0.44040245008468626, 0.4273890097141266, 0.4192460234165192], [0.38406416296958923, 0.3892344365119934, 0.39028274941444396, 0.3970927908420563, 0.4048062369823456, 0.38959627342224123], [0.366134021282196, 0.36323636198043824, 0.3603545169830322, 0.37865786361694337, 0.3614724729061127, 0.36184924721717837], [0.3334351601600647, 0.3381771128177643, 0.33210416054725644, 0.3360682156085968, 0.33208659982681277, 0.33099023485183715], [0.3124849696159363, 0.32373233342170715, 0.3153326096534729, 0.32385008096694945, 0.32422646951675416, 0.32521317338943484]]</t>
+  </si>
+  <si>
+    <t>[[0.6076231846809387, 0.5981092319488526, 0.5532393350601196, 0.555174382686615, 0.5676105360984802, 0.5251116876602173, 0.5649825372695922, 0.5599765901565552, 0.5860381851196289, 0.5605903120040894], [0.5439201626777649, 0.5024729952812195, 0.49653387546539307, 0.5296213369369507, 0.5103315019607544, 0.5495722832679748, 0.49559085130691527, 0.4883744254112244, 0.5506023497581481, 0.49347936725616454], [0.461449520111084, 0.48088150763511656, 0.4803693654537201, 0.4778639612197876, 0.4557761154174805, 0.4743715877532959, 0.4455052297115326, 0.4771087927818298, 0.4649227733612061, 0.46841740083694455], [0.4271126937866211, 0.4238823232650757, 0.4140788516998291, 0.41272078704833987, 0.4224786946773529, 0.4183010869026184, 0.4230641822814941, 0.4100283451080322, 0.40672865891456605, 0.40809505796432494], [0.4075986495018005, 0.3900730495452881, 0.4126046693325043, 0.3990479395389557, 0.3942380220890045, 0.3968009698390961, 0.4098861937522888, 0.39942695283889773, 0.38770031571388247, 0.4109535148143768], [0.3634545059204102, 0.3645792441368103, 0.3670307674407959, 0.36210013151168824, 0.36302769231796267, 0.3649458336830139, 0.3528173098564148, 0.35895444750785827, 0.3649650914669037, 0.3722462651729584], [0.3411442291736603, 0.34240978527069094, 0.3278309528827667, 0.3302637884616852, 0.3378688452243805, 0.3326778149604797, 0.3314322304725647, 0.343613347530365, 0.34121104383468626, 0.3348314075469971], [0.31883621191978456, 0.3195084323883057, 0.30503507995605467, 0.3161241879463196, 0.3172768280506134, 0.31165163779258725, 0.3146997866630554, 0.32196840620040895, 0.31733908319473264, 0.3196165502071381]]</t>
+  </si>
+  <si>
+    <t>[[0.5837741069793702, 0.5931100955009461, 0.5483812284469605, 0.5407266011238098, 0.5933702187538147, 0.5380932698249817, 0.54402698802948, 0.5546803154945373, 0.6020327730178833, 0.5571412787437439], [0.48940411949157714, 0.5140286855697632, 0.4966995077133179, 0.5458099050521851, 0.5425529489517212, 0.500378134727478, 0.4897675848007202, 0.497724627494812, 0.5479921245574951, 0.5002929887771607], [0.4744674987792969, 0.5072405748367309, 0.4678506875038147, 0.46742482352256776, 0.4646192173957825, 0.4942087903022766, 0.4696208643913269, 0.5048505067825317, 0.47448424673080447, 0.4437188000679016], [0.4234170548915863, 0.41120510268211363, 0.4194844546318054, 0.4071774296760559, 0.42346463203430174, 0.4129612236022949, 0.41703551483154294, 0.4130656132698059, 0.41689301109313964, 0.41862490892410276], [0.4021794581413269, 0.39047935032844544, 0.40245218348503115, 0.39539303541183474, 0.3932954134941101, 0.3846596109867096, 0.3990569078922272, 0.4191609377861023, 0.40100914001464844, 0.39359714365005494], [0.3650164532661438, 0.36406008529663086, 0.3597442100048065, 0.37577806901931765, 0.3628986990451813, 0.3561357464790344, 0.36395891547203063, 0.3765077519416809, 0.3699031021595001, 0.36152492570877076], [0.3304966962337494, 0.3337883703708649, 0.33578738117218015, 0.3361869444847107, 0.33293537855148314, 0.34558735609054564, 0.3389294514656067, 0.33654973888397216, 0.3333262314796448, 0.34025957226753234], [0.31917131853103636, 0.3234344894886017, 0.31546037101745605, 0.3239196615219116, 0.3143013048171997, 0.3220482597351074, 0.3174451310634613, 0.3215148720741272, 0.31459981656074526, 0.3167981152534485]]</t>
+  </si>
+  <si>
     <t>[[0.6579092, 0.6562309], [0.66596437, 0.6685334], [0.6383208, 0.64105546]]</t>
   </si>
   <si>
     <t>[[0.6783805, 0.6594309], [0.6665178, 0.6717219], [0.6453754, 0.6289982]]</t>
+  </si>
+  <si>
+    <t>[[0.5606809, 0.574329, 0.55224633, 0.5369499, 0.53217643, 0.6116022], [0.6037396, 0.60147333, 0.57242054, 0.5859004, 0.5737946, 0.5680095], [0.5330475, 0.5338139, 0.5067264, 0.49733397, 0.5333742, 0.5271172], [0.43204457, 0.4603111, 0.42416358, 0.43013874, 0.42068535, 0.42702043], [0.40853703, 0.4191496, 0.4172741, 0.40570456, 0.42451975, 0.40954584], [0.37826684, 0.3731744, 0.36042452, 0.36792916, 0.37717515, 0.36703986], [0.35417515, 0.35261968, 0.3565167, 0.3486282, 0.35462144, 0.348765], [0.3333231, 0.33123672, 0.3320657, 0.32929882, 0.3307057, 0.3313364]]</t>
+  </si>
+  <si>
+    <t>[[0.5841057, 0.5680969, 0.591346, 0.5669247, 0.5550299, 0.56411886], [0.5904852, 0.57771516, 0.5728491, 0.58691794, 0.61446023, 0.5973234], [0.51945966, 0.5161149, 0.5147629, 0.50648266, 0.5311442, 0.505048], [0.43171623, 0.45284206, 0.43573245, 0.4499361, 0.44323254, 0.4412158], [0.41113552, 0.4028129, 0.40413535, 0.41744655, 0.41842845, 0.4110868], [0.3782239, 0.37150484, 0.38356206, 0.37278208, 0.3684634, 0.3753498], [0.35599625, 0.34871423, 0.35087365, 0.34854847, 0.34807053, 0.35097024], [0.33139986, 0.33151755, 0.33296826, 0.33354408, 0.3326117, 0.3354943]]</t>
+  </si>
+  <si>
+    <t>[[0.59889895, 0.5725169, 0.551028, 0.55793756, 0.5643519, 0.55751413, 0.54803205, 0.5605004, 0.60241276, 0.55103606], [0.5873027, 0.5880036, 0.58503544, 0.61134976, 0.58379215, 0.5954517, 0.58669925, 0.5732017, 0.6114293, 0.57539487], [0.50513834, 0.5306299, 0.5150976, 0.5320545, 0.5210372, 0.5139172, 0.49397403, 0.516715, 0.51335317, 0.51732177], [0.43368196, 0.4173906, 0.4394887, 0.41462883, 0.44178793, 0.43277395, 0.4279657, 0.41952452, 0.43529215, 0.42309642], [0.41385052, 0.4069428, 0.42909703, 0.41326967, 0.3944901, 0.40416214, 0.42354572, 0.3979068, 0.39847523, 0.42079207], [0.3687847, 0.37408662, 0.37071037, 0.37360403, 0.38193578, 0.3796466, 0.36533803, 0.36213648, 0.3725172, 0.36765033], [0.35282958, 0.3567683, 0.3537729, 0.3524761, 0.358597, 0.35555977, 0.34880638, 0.35279974, 0.3549054, 0.3473218], [0.33133715, 0.3360118, 0.33458138, 0.3314175, 0.33009353, 0.32741496, 0.32807222, 0.33500323, 0.33289167, 0.33086583]]</t>
+  </si>
+  <si>
+    <t>[[0.60034925, 0.6022652, 0.5436933, 0.5803803, 0.58194685, 0.5044305, 0.52450323, 0.55387986, 0.59415495, 0.55252975], [0.563378, 0.59378517, 0.58142877, 0.5947534, 0.57573026, 0.5873089, 0.5688321, 0.56228936, 0.585875, 0.5863496], [0.533323, 0.5615065, 0.5150196, 0.50536084, 0.50870943, 0.52191603, 0.50868595, 0.5456947, 0.5278686, 0.4783846], [0.4363178, 0.4252888, 0.4324152, 0.4302384, 0.4267998, 0.42549857, 0.43265224, 0.42105967, 0.4350806, 0.44192737], [0.4187433, 0.405339, 0.40503007, 0.4126784, 0.41380823, 0.40344015, 0.40767807, 0.4356531, 0.40942204, 0.40897617], [0.3742753, 0.36997387, 0.36840317, 0.38430074, 0.37506735, 0.36696988, 0.3645575, 0.37226015, 0.37290052, 0.3808165], [0.352016, 0.35639113, 0.35347503, 0.35239026, 0.35234785, 0.35566545, 0.35527757, 0.35238385, 0.35326484, 0.35271454], [0.33384454, 0.3334772, 0.3309161, 0.33064675, 0.32947668, 0.33153778, 0.33287844, 0.33113325, 0.32994577, 0.33645096]]</t>
   </si>
 </sst>
 </file>
@@ -10260,7 +10320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10268,25 +10328,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="H1" t="s"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>0.333</v>
       </c>
-      <c r="D2" t="s"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="H2" t="s"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -10299,8 +10359,20 @@
       <c r="D3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -10313,8 +10385,20 @@
       <c r="D4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -10327,8 +10411,20 @@
       <c r="D5" t="n">
         <v>0.499</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -10341,8 +10437,20 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -10355,8 +10463,20 @@
       <c r="D7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -10369,8 +10489,20 @@
       <c r="D8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -10383,8 +10515,20 @@
       <c r="D9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -10397,8 +10541,20 @@
       <c r="D10" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -10411,8 +10567,20 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -10425,8 +10593,20 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -10439,8 +10619,20 @@
       <c r="D13" t="n">
         <v>128</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="n">
+        <v>128</v>
+      </c>
+      <c r="F13" t="n">
+        <v>128</v>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -10453,8 +10645,20 @@
       <c r="D14" t="n">
         <v>0.499</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -10467,8 +10671,20 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -10481,8 +10697,20 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -10495,8 +10723,20 @@
       <c r="D17" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -10509,8 +10749,20 @@
       <c r="D18" t="n">
         <v>1500</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -10523,8 +10775,20 @@
       <c r="D19" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -10537,8 +10801,20 @@
       <c r="D20" t="n">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="n">
+        <v>32</v>
+      </c>
+      <c r="F20" t="n">
+        <v>32</v>
+      </c>
+      <c r="G20" t="n">
+        <v>32</v>
+      </c>
+      <c r="H20" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -10551,8 +10827,20 @@
       <c r="D21" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="n">
+        <v>64</v>
+      </c>
+      <c r="F21" t="n">
+        <v>64</v>
+      </c>
+      <c r="G21" t="n">
+        <v>64</v>
+      </c>
+      <c r="H21" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -10565,8 +10853,20 @@
       <c r="D22" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="n">
+        <v>64</v>
+      </c>
+      <c r="F22" t="n">
+        <v>64</v>
+      </c>
+      <c r="G22" t="n">
+        <v>64</v>
+      </c>
+      <c r="H22" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -10579,8 +10879,20 @@
       <c r="D23" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="n">
+        <v>64</v>
+      </c>
+      <c r="F23" t="n">
+        <v>64</v>
+      </c>
+      <c r="G23" t="n">
+        <v>64</v>
+      </c>
+      <c r="H23" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -10593,8 +10905,20 @@
       <c r="D24" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="n">
+        <v>64</v>
+      </c>
+      <c r="F24" t="n">
+        <v>64</v>
+      </c>
+      <c r="G24" t="n">
+        <v>64</v>
+      </c>
+      <c r="H24" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -10607,8 +10931,20 @@
       <c r="D25" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="n">
+        <v>64</v>
+      </c>
+      <c r="F25" t="n">
+        <v>64</v>
+      </c>
+      <c r="G25" t="n">
+        <v>64</v>
+      </c>
+      <c r="H25" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -10621,8 +10957,20 @@
       <c r="D26" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -10635,8 +10983,20 @@
       <c r="D27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>171</v>
       </c>
@@ -10649,8 +11009,20 @@
       <c r="D28" t="n">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -10663,8 +11035,20 @@
       <c r="D29" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>160</v>
       </c>
@@ -10677,8 +11061,20 @@
       <c r="D30" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -10691,8 +11087,20 @@
       <c r="D31" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -10705,8 +11113,20 @@
       <c r="D32" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="n">
+        <v>9</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -10719,8 +11139,20 @@
       <c r="D33" t="n">
         <v>9000</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -10733,8 +11165,20 @@
       <c r="D34" t="n">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="n">
+        <v>20001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -10747,8 +11191,20 @@
       <c r="D35" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="n">
+        <v>1201</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1201</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -10761,8 +11217,20 @@
       <c r="D36" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="n">
+        <v>25</v>
+      </c>
+      <c r="F36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G36" t="n">
+        <v>25</v>
+      </c>
+      <c r="H36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -10775,8 +11243,20 @@
       <c r="D37" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -10789,8 +11269,20 @@
       <c r="D38" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -10803,8 +11295,20 @@
       <c r="D39" t="n">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" t="n">
+        <v>100</v>
+      </c>
+      <c r="G39" t="n">
+        <v>100</v>
+      </c>
+      <c r="H39" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -10817,8 +11321,20 @@
       <c r="D40" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="n">
+        <v>200</v>
+      </c>
+      <c r="F40" t="n">
+        <v>200</v>
+      </c>
+      <c r="G40" t="n">
+        <v>100</v>
+      </c>
+      <c r="H40" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -10831,8 +11347,20 @@
       <c r="D41" t="n">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="n">
+        <v>55</v>
+      </c>
+      <c r="F41" t="n">
+        <v>55</v>
+      </c>
+      <c r="G41" t="n">
+        <v>55</v>
+      </c>
+      <c r="H41" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10845,8 +11373,20 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -10859,8 +11399,20 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -10873,8 +11425,20 @@
       <c r="D44" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -10887,8 +11451,20 @@
       <c r="D45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -10901,8 +11477,20 @@
       <c r="D46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -10915,8 +11503,20 @@
       <c r="D47" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -10929,8 +11529,20 @@
       <c r="D48" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -10943,8 +11555,20 @@
       <c r="D49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -10957,8 +11581,20 @@
       <c r="D50" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -10971,8 +11607,20 @@
       <c r="D51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -10985,8 +11633,20 @@
       <c r="D52" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -10999,8 +11659,20 @@
       <c r="D53" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -11013,8 +11685,20 @@
       <c r="D54" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -11027,8 +11711,20 @@
       <c r="D55" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -11041,8 +11737,20 @@
       <c r="D56" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -11055,8 +11763,20 @@
       <c r="D57" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -11069,8 +11789,20 @@
       <c r="D58" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -11083,8 +11815,20 @@
       <c r="D59" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>194</v>
       </c>
@@ -11097,8 +11841,20 @@
       <c r="D60" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -11111,8 +11867,20 @@
       <c r="D61" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" t="s">
+        <v>200</v>
+      </c>
+      <c r="G61" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -11125,60 +11893,132 @@
       <c r="D62" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D63" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>203</v>
+      </c>
+      <c r="E63" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" t="s">
+        <v>203</v>
+      </c>
+      <c r="G63" t="s">
+        <v>203</v>
+      </c>
+      <c r="H63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>172</v>
       </c>
       <c r="C64" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D64" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>205</v>
+      </c>
+      <c r="E64" t="s">
+        <v>206</v>
+      </c>
+      <c r="F64" t="s">
+        <v>207</v>
+      </c>
+      <c r="G64" t="s">
+        <v>208</v>
+      </c>
+      <c r="H64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>211</v>
+      </c>
+      <c r="E65" t="s">
+        <v>212</v>
+      </c>
+      <c r="F65" t="s">
+        <v>213</v>
+      </c>
+      <c r="G65" t="s">
+        <v>214</v>
+      </c>
+      <c r="H65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D66" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>217</v>
+      </c>
+      <c r="E66" t="s">
+        <v>218</v>
+      </c>
+      <c r="F66" t="s">
+        <v>219</v>
+      </c>
+      <c r="G66" t="s">
+        <v>220</v>
+      </c>
+      <c r="H66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>184</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D67" t="s">
-        <v>207</v>
+        <v>223</v>
+      </c>
+      <c r="E67" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67" t="s">
+        <v>225</v>
+      </c>
+      <c r="G67" t="s">
+        <v>226</v>
+      </c>
+      <c r="H67" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
